--- a/Software/IDCC.xlsx
+++ b/Software/IDCC.xlsx
@@ -1,43 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9E5FE-6572-7C4F-8562-90D97B11E9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED0FAD9-771B-1D4D-B774-207AFF6BA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'DCF Model'!$A$18</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1963,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>178.72</v>
-    <v>84.41</v>
-    <v>1.3701000000000001</v>
-    <v>8.4499999999999993</v>
-    <v>5.0046999999999994E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>191.565</v>
+    <v>95.33</v>
+    <v>1.3864000000000001</v>
+    <v>1.22</v>
+    <v>6.7010000000000004E-3</v>
+    <v>3.16</v>
+    <v>1.7239999999999998E-2</v>
     <v>USD</v>
     <v>InterDigital, Inc. is a global research and development company focused primarily on wireless, video, artificial intelligence (AI), and related technologies. It designs and develops foundational technologies that enable connected, immersive experiences in a range of communications and entertainment products and services. The Company license its innovations worldwide to companies providing such products and services, including makers of wireless communications devices, consumer electronics, IoT devices, cars and other motor vehicles and providers of cloud-based services such as video streaming. It focuses on wireless technology, which is used in wireless products and networks, from the earliest digital cellular systems to 5G and advanced Wi-Fi technologies. The Company also focuses on video processing and video encoding/decoding technology, with a significant AI research effort that intersects with both wireless and video technologies.</v>
     <v>450</v>
@@ -1977,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Bellevue Parkway, Suite 300, WILMINGTON, DE, 19809-3727 US</v>
-    <v>178.72</v>
+    <v>184.7099</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45602.953288298435</v>
+    <v>45614.983120867968</v>
     <v>0</v>
-    <v>171.17</v>
-    <v>4455255150</v>
+    <v>182.1</v>
+    <v>4645252271</v>
     <v>InterDigital, Inc.</v>
     <v>InterDigital, Inc.</v>
-    <v>171.17</v>
-    <v>18.936199999999999</v>
-    <v>168.84</v>
-    <v>177.29</v>
-    <v>177.29</v>
-    <v>25129760</v>
+    <v>182.1</v>
+    <v>19.537500000000001</v>
+    <v>182.07</v>
+    <v>183.29</v>
+    <v>186.45</v>
+    <v>25343730</v>
     <v>IDCC</v>
     <v>InterDigital, Inc. (XNAS:IDCC)</v>
-    <v>428409</v>
-    <v>434415</v>
+    <v>205672</v>
+    <v>424633</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2889,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2922,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>177.29</v>
+        <v>183.29</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>6.2311260839160836</v>
+        <v>6.4968563230769227</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2943,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>19765416.782254692</v>
+        <v>19933711.514432758</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2969,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.0046999999999994E-2</v>
+        <v>6.7010000000000004E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>16.083953610108303</v>
+        <v>16.769863794223827</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3017,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>4455255150</v>
+        <v>4645252271</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>7.788555050545197E-2</v>
+        <v>7.4699925807323292E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3051,7 +3028,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>312.63503164307906</v>
+        <v>309.9955418078942</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3066,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3701000000000001</v>
+        <v>1.3864000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3099,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>0.76341041030559587</v>
+        <v>0.69128453165963344</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
